--- a/corona-server-side-asp.net/Excels/Sections/מבט על/נפטרים מצטבר.xlsx
+++ b/corona-server-side-asp.net/Excels/Sections/מבט על/נפטרים מצטבר.xlsx
@@ -21,13 +21,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>average</t>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>group</t>
   </si>
 </sst>
 </file>
@@ -365,24 +365,24 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="3">
+      <c r="C2" s="3">
         <v>13171</v>
       </c>
     </row>
